--- a/FinalRelease/系统测试用例.xlsx
+++ b/FinalRelease/系统测试用例.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\132ash\Desktop\Course Files\软工\FinalRelease\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ringo\Ringo\FinalRelease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137443BD-C0B1-4924-A772-2272B81BA40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDFF5F4-B22B-4A6B-8795-2DC955D6B4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3432" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="421">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2188,6 +2188,46 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
+    <t>主页能够显示刚刚提交的需求</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-010</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供发布测试</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否能正常发布提供</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以登陆后正常进入我的提供页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供名称、紧急度、位置、提供日期段、物品类型、图片</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>1.</t>
     </r>
@@ -2198,7 +2238,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">点击发布需求按钮
+      <t xml:space="preserve">点击发布提供按钮
 </t>
     </r>
     <r>
@@ -2216,8 +2256,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">填入数据
-</t>
+      <t>填入数据
+3.选择上传本地图片
+4</t>
     </r>
     <r>
       <rPr>
@@ -2225,7 +2266,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>3.</t>
+      <t>.</t>
     </r>
     <r>
       <rPr>
@@ -2239,7 +2280,10 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>主页能够显示刚刚提交的需求</t>
+    <t>个人提供页面能够显示刚刚提交的需求和上传的图片</t>
+  </si>
+  <si>
+    <t>个人提供页面能够显示刚刚提交的需求和上传的图片</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
@@ -2258,25 +2302,139 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-010</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供发布测试</t>
+      <t>--testcase-011</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供物品详细信息展示</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>测试是否能正常发布提供</t>
+    <t>测试提供物品详情是否正确显示</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>可以登陆后正常进入我的提供页面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供名称、紧急度、位置、提供日期段、物品类型、图片</t>
+    <t>进入我的提供页面后，点击提供物品</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供物品详情能够正确显示</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-012</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品搜索测试</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试物品搜索功能是否正常</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索文本</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页搜索栏输入“烟弹”，点击搜索</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页能够显示标题、正文中有“烟弹”的需求</t>
+  </si>
+  <si>
+    <t>主页能够显示标题、正文中有“烟弹”的需求</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-013</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息展示测试</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试个人信息是否能够正确显示</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击右上角个人头像</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够正常进入个人信息界面，显示个人信息</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-014</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息修改测试</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试个人信息是否能够正确修改</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像图片、昵称、个性签名、地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2289,7 +2447,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">点击发布提供按钮
+      <t xml:space="preserve">点击修改个人信息按钮
 </t>
     </r>
     <r>
@@ -2331,11 +2489,11 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>个人提供页面能够显示刚刚提交的需求和上传的图片</t>
-  </si>
-  <si>
-    <t>个人提供页面能够显示刚刚提交的需求和上传的图片</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+    <t>新的个人信息（包括头像）能够正确显示，主页的头像按钮也被修改</t>
+  </si>
+  <si>
+    <t>新的个人信息（包括头像）能够正确显示，主页的头像按钮也被修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2353,25 +2511,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-011</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供物品详细信息展示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试提供物品详情是否正确显示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入我的提供页面后，点击提供物品</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供物品详情能够正确显示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+      <t>--testcase-015</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否能够重置个人密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名、新密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.个人信息页点击重置密码按钮
+2.输入用户名、新密码，并再次输入新密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统提示重置成功，回到个人信息界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2389,37 +2548,305 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-012</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品搜索测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试物品搜索功能是否正常</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索文本</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页搜索栏输入“烟弹”，点击搜索</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页能够显示标题、正文中有“烟弹”的需求</t>
-  </si>
-  <si>
-    <t>主页能够显示标题、正文中有“烟弹”的需求</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+      <t>--testcase-016</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-017</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重置密码测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否能够退出登录状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">个人信息页点击退出登录按钮
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到登录界面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页发起私聊测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能否在主页和其他用户发起私聊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主页点击物品详情中的私聊按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底部编辑消息并发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录该物品对应的用户账号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两用户的个人信息页面都可以正确显示对方的联系人信息，进入后能够查看刚刚发送的信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-018</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天未读消息测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试聊天模块的未读消息数是否能正确显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主页点击物品详情中的私聊按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>底部编辑5条消息并发送</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录该物品对应的用户账号</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两用户的个人信息页面都可以正确显示对方的联系人信息，第一个用户显示未读消息数为0，第二个为5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试推荐系统是否能正常使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以登陆后正常进入主页，可以正常发布提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>用户发布名称为白菜的提供条目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主页左上角选择“按匹配度排序”</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页显示的需求顺序发生变化，和白菜、食品等相关的条目排列靠前</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求管理测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以登陆后正常进入个人需求管理页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供管理测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以登陆后正常进入个人提供管理页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-019</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力测试</t>
+  </si>
+  <si>
+    <t>测试高并发下请求视图函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中</t>
-  </si>
-  <si>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统功能正常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2427,6 +2854,102 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
+      <t>运行后端服务器
+2.使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压测工具访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">goods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab -n100 -c100 http://127.0.0.1:8000/apis/goods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间&lt;1s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求完成时间为526</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，小于1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>交大林檎</t>
     </r>
     <r>
@@ -2435,25 +2958,88 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息展示测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试个人信息是否能够正确显示</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击右上角个人头像</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>能够正常进入个人信息界面，显示个人信息</t>
-    <phoneticPr fontId="26" type="noConversion"/>
+      <t>--testcase-020</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行后端服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压测工具访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">goods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab -n500 -c200 http://127.0.0.1:8000/apis/goods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间&lt;3s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2471,20 +3057,207 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-014</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息修改测试</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试个人信息是否能够正确修改</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像图片、昵称、个性签名、地址</t>
+      <t>--testcase-021</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发访问测试(中)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发访问测试(高)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中并发下请求视图函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求完成时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3639ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，略微超过3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">s </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Low(微小错误)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>交大林檎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>--testcase-022</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发访问测试(低)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试低并发下请求视图函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>运行后端服务器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>压测工具访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">goods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>视图：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ab -n100 -c50 http://127.0.0.1:8000/apis/goods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求时间&lt;500ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请求完成时间为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>138ms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，小于500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">ms </t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2498,7 +3271,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">点击修改个人信息按钮
+      <t xml:space="preserve">点击发布需求按钮
 </t>
     </r>
     <r>
@@ -2516,9 +3289,8 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>填入数据
-3.选择上传本地图片
-4</t>
+      <t xml:space="preserve">填入数据
+</t>
     </r>
     <r>
       <rPr>
@@ -2526,7 +3298,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>.</t>
+      <t>3.</t>
     </r>
     <r>
       <rPr>
@@ -2535,18 +3307,22 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>点击提交</t>
+      <t>点击提交，自动返回主页</t>
     </r>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>新的个人信息（包括头像）能够正确显示，主页的头像按钮也被修改</t>
-  </si>
-  <si>
-    <t>新的个人信息（包括头像）能够正确显示，主页的头像按钮也被修改</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+    <t>测试是否能删除需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试是否能删除提供</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2554,7 +3330,8 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>交大林檎</t>
+      <t>选择个人发布的第一条提供，点击删除
+2.</t>
     </r>
     <r>
       <rPr>
@@ -2562,28 +3339,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-015</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试是否能够重置个人密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名、新密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.个人信息页点击重置密码按钮
-2.输入用户名、新密码，并再次输入新密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统提示重置成功，回到个人信息界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2591,7 +3348,23 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>交大林檎</t>
+      <t>返回个人需求界面查看</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择个人发布的第一条需求，点击删除
+2.</t>
     </r>
     <r>
       <rPr>
@@ -2599,11 +3372,8 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>--testcase-016</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2611,567 +3381,19 @@
         <family val="1"/>
         <charset val="134"/>
       </rPr>
-      <t>交大林檎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--testcase-017</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重置密码测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>退出登录测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试是否能够退出登录状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">个人信息页点击退出登录按钮
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回到登录界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页发起私聊测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试能否在主页和其他用户发起私聊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主页点击物品详情中的私聊按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底部编辑消息并发送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录该物品对应的用户账号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两用户的个人信息页面都可以正确显示对方的联系人信息，进入后能够查看刚刚发送的信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交大林檎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--testcase-018</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天未读消息测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试聊天模块的未读消息数是否能正确显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主页点击物品详情中的私聊按钮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>底部编辑5条消息并发送</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>登录该物品对应的用户账号</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两用户的个人信息页面都可以正确显示对方的联系人信息，第一个用户显示未读消息数为0，第二个为5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>推荐系统测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试推荐系统是否能正常使用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以登陆后正常进入主页，可以正常发布提供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户发布名称为白菜的提供条目</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>主页左上角选择“按匹配度排序”</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页显示的需求顺序发生变化，和白菜、食品等相关的条目排列靠前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求管理测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试是否能删除、修改需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以登陆后正常进入个人需求管理页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择个人发布的第一条需求，修改其标题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>返回个人需求界面查看</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择个人发布的第一条需求，点击删除
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回个人需求界面查看</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该需求的标题变为修改值，删除后不再显示</t>
-  </si>
-  <si>
-    <t>提供管理测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试是否能删除、修改提供</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以登陆后正常进入个人提供管理页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择个人发布的第一条提供，修改其标题</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回个人提供界面查看</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择个人发布的第一条提供，点击删除
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>返回个人需求界面查看</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该提供的标题变为修改值，删除后不再显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交大林檎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--testcase-019</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>该需求的标题变为修改值，删除后个人需求页面和主页均不再显示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>并发访问测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>压力测试</t>
-  </si>
-  <si>
-    <t>测试高并发下请求视图函数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统功能正常</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>运行后端服务器
-2.使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ab</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>压测工具访问</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">goods </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>视图：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ab -n100 -c100 http://127.0.0.1:8000/apis/goods</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求时间&lt;1s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请求完成时间为526</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ms</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，小于1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">s </t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="1"/>
-        <charset val="134"/>
-      </rPr>
-      <t>交大林檎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>--testcase-020</t>
-    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除后个人提供界面和主页不再显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除后主页不再显示该需求，筛选个人需求也不显示</t>
+  </si>
+  <si>
+    <t>删除后主页不再显示该需求，筛选个人需求也不显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3182,7 +3404,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3356,6 +3578,12 @@
       <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4746,15 +4974,15 @@
       <c r="C27" s="69"/>
       <c r="D27" s="9">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27" s="9">
         <f>SUMPRODUCT(('Test Cases'!C:C=B27)*('Test Cases'!K:K="Y"))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G27" s="23"/>
     </row>
@@ -4786,15 +5014,15 @@
       <c r="C29" s="69"/>
       <c r="D29" s="9">
         <f>SUM(D20:D28)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29" s="9">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -4909,8 +5137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP904"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5393,13 +5621,13 @@
         <v>323</v>
       </c>
       <c r="H13" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="I13" s="43" t="s">
         <v>324</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>325</v>
-      </c>
       <c r="J13" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>256</v>
@@ -5412,34 +5640,34 @@
     </row>
     <row r="14" spans="1:42" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>326</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>327</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E14" s="45" t="s">
         <v>251</v>
       </c>
       <c r="F14" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="H14" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="43" t="s">
+        <v>332</v>
+      </c>
+      <c r="J14" s="43" t="s">
         <v>331</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>333</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>332</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>256</v>
@@ -5452,34 +5680,34 @@
     </row>
     <row r="15" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>334</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>335</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>293</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>251</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>296</v>
       </c>
       <c r="H15" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" s="43" t="s">
         <v>337</v>
       </c>
-      <c r="I15" s="43" t="s">
-        <v>338</v>
-      </c>
       <c r="J15" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>256</v>
@@ -5492,34 +5720,34 @@
     </row>
     <row r="16" spans="1:42" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>339</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>340</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>295</v>
       </c>
       <c r="G16" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="H16" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="I16" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="J16" s="43" t="s">
         <v>343</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>345</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>344</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>256</v>
@@ -5532,16 +5760,16 @@
     </row>
     <row r="17" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>347</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>348</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>293</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>251</v>
@@ -5553,13 +5781,13 @@
         <v>296</v>
       </c>
       <c r="H17" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="I17" s="43" t="s">
         <v>350</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>351</v>
-      </c>
       <c r="J17" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>256</v>
@@ -5572,16 +5800,16 @@
     </row>
     <row r="18" spans="1:14" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
+        <v>351</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>352</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>353</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>251</v>
@@ -5590,16 +5818,16 @@
         <v>295</v>
       </c>
       <c r="G18" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="H18" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J18" s="43" t="s">
         <v>356</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>358</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>357</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>256</v>
@@ -5612,16 +5840,16 @@
     </row>
     <row r="19" spans="1:14" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E19" s="45" t="s">
         <v>251</v>
@@ -5630,16 +5858,16 @@
         <v>295</v>
       </c>
       <c r="G19" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="H19" s="44" t="s">
+      <c r="I19" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="I19" s="44" t="s">
-        <v>363</v>
-      </c>
       <c r="J19" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>256</v>
@@ -5652,16 +5880,16 @@
     </row>
     <row r="20" spans="1:14" ht="43.8" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="45" t="s">
         <v>251</v>
@@ -5670,16 +5898,16 @@
         <v>295</v>
       </c>
       <c r="G20" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H20" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="I20" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="I20" s="44" t="s">
-        <v>371</v>
-      </c>
       <c r="J20" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>256</v>
@@ -5692,16 +5920,16 @@
     </row>
     <row r="21" spans="1:14" ht="87" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>251</v>
@@ -5710,16 +5938,16 @@
         <v>295</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I21" s="44" t="s">
         <v>374</v>
       </c>
-      <c r="I21" s="44" t="s">
-        <v>375</v>
-      </c>
       <c r="J21" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>256</v>
@@ -5732,16 +5960,16 @@
     </row>
     <row r="22" spans="1:14" ht="101.4" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>376</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>377</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E22" s="45" t="s">
         <v>251</v>
@@ -5750,16 +5978,16 @@
         <v>295</v>
       </c>
       <c r="G22" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H22" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I22" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="I22" s="44" t="s">
-        <v>380</v>
-      </c>
       <c r="J22" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>256</v>
@@ -5772,34 +6000,34 @@
     </row>
     <row r="23" spans="1:14" ht="72.599999999999994" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E23" s="45" t="s">
         <v>251</v>
       </c>
       <c r="F23" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="G23" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="G23" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="44" t="s">
         <v>384</v>
       </c>
-      <c r="I23" s="44" t="s">
-        <v>385</v>
-      </c>
       <c r="J23" s="44" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>256</v>
@@ -5810,36 +6038,36 @@
       <c r="M23" s="32"/>
       <c r="N23" s="6"/>
     </row>
-    <row r="24" spans="1:14" ht="130.19999999999999" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>387</v>
+        <v>414</v>
       </c>
       <c r="E24" s="45" t="s">
         <v>251</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="J24" s="43" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>256</v>
@@ -5850,36 +6078,36 @@
       <c r="M24" s="32"/>
       <c r="N24" s="6"/>
     </row>
-    <row r="25" spans="1:14" ht="130.19999999999999" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="58.2" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="E25" s="45" t="s">
         <v>251</v>
       </c>
       <c r="F25" s="43" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="I25" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="J25" s="43" t="s">
-        <v>395</v>
+        <v>418</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>418</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>256</v>
@@ -5892,34 +6120,34 @@
     </row>
     <row r="26" spans="1:14" ht="85.2" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F26" s="44" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I26" s="43" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>256</v>
@@ -5930,35 +6158,83 @@
       <c r="M26" s="32"/>
       <c r="N26" s="6"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+    <row r="27" spans="1:14" ht="88.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>406</v>
+      </c>
       <c r="M27" s="32"/>
       <c r="N27" s="6"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+    <row r="28" spans="1:14" ht="88.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>407</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>409</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G28" s="44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>411</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>412</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>254</v>
+      </c>
       <c r="M28" s="32"/>
       <c r="N28" s="6"/>
     </row>
